--- a/Base/Backlog_27.xlsx
+++ b/Base/Backlog_27.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D02C1B-C470-4DBC-BBDA-99FA19DC09FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6415FA-8793-42A4-BBC6-7F329962888A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ITI!$A$1:$J$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SPN!$A$1:$J$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SPN!$A$1:$J$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1476,7 +1476,7 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2294,7 +2294,7 @@
       <c r="F66" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J10" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}"/>
+  <autoFilter ref="A1:J13" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Base/Backlog_27.xlsx
+++ b/Base/Backlog_27.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6415FA-8793-42A4-BBC6-7F329962888A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE23786-9AFC-497B-B659-301CE04A9800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="30">
   <si>
     <t>Backlog</t>
   </si>
@@ -128,13 +128,16 @@
   </si>
   <si>
     <t>Michel Pessoa</t>
+  </si>
+  <si>
+    <t>Resolvido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +182,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -231,10 +241,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -296,9 +307,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -612,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -696,7 +711,7 @@
         <v>45845</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>11</v>
@@ -801,7 +816,7 @@
         <v>45845</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>11</v>
@@ -1011,7 +1026,7 @@
         <v>45845</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>11</v>
@@ -1116,7 +1131,7 @@
         <v>45845</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>11</v>
@@ -1151,7 +1166,7 @@
         <v>45845</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>11</v>
@@ -1475,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1559,7 +1574,7 @@
         <v>45845</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>15</v>
@@ -1664,7 +1679,7 @@
         <v>45845</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>15</v>
@@ -1699,7 +1714,7 @@
         <v>45845</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>15</v>
@@ -1734,7 +1749,7 @@
         <v>45845</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>15</v>
@@ -1769,7 +1784,7 @@
         <v>45845</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>15</v>
@@ -1839,7 +1854,7 @@
         <v>45845</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>15</v>
@@ -1874,7 +1889,7 @@
         <v>45845</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>15</v>
@@ -1944,7 +1959,7 @@
         <v>45845</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>15</v>
@@ -2025,7 +2040,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="2"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="7"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Base/Backlog_27.xlsx
+++ b/Base/Backlog_27.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE23786-9AFC-497B-B659-301CE04A9800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A7453D-9F26-4E9C-804D-56023BFC117F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
@@ -118,9 +118,6 @@
     <t>Anderson Giese</t>
   </si>
   <si>
-    <t>Higor Pratz</t>
-  </si>
-  <si>
     <t>Mava Neves</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>Resolvido</t>
+  </si>
+  <si>
+    <t>Higor Cruz</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
         <v>45845</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>11</v>
@@ -816,7 +816,7 @@
         <v>45845</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>11</v>
@@ -967,7 +967,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="9">
         <v>2025</v>
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="9">
         <v>2025</v>
@@ -1026,7 +1026,7 @@
         <v>45845</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>11</v>
@@ -1131,7 +1131,7 @@
         <v>45845</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>11</v>
@@ -1166,7 +1166,7 @@
         <v>45845</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>11</v>
@@ -1491,7 +1491,7 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1574,7 +1574,7 @@
         <v>45845</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>15</v>
@@ -1620,7 +1620,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C4" s="17">
         <v>2025</v>
@@ -1655,7 +1655,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" s="17">
         <v>2025</v>
@@ -1679,7 +1679,7 @@
         <v>45845</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>15</v>
@@ -1690,7 +1690,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C6" s="17">
         <v>2025</v>
@@ -1714,7 +1714,7 @@
         <v>45845</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>15</v>
@@ -1725,7 +1725,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C7" s="17">
         <v>2025</v>
@@ -1749,7 +1749,7 @@
         <v>45845</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>15</v>
@@ -1784,7 +1784,7 @@
         <v>45845</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>15</v>
@@ -1854,7 +1854,7 @@
         <v>45845</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>15</v>
@@ -1889,7 +1889,7 @@
         <v>45845</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>15</v>
@@ -1935,7 +1935,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="17">
         <v>2025</v>
@@ -1959,7 +1959,7 @@
         <v>45845</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>15</v>
